--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="متابعة المشاريع وزارة التخطيط " sheetId="1" r:id="rId1"/>
@@ -2993,6 +2993,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3785,6 +3786,60 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
@@ -3811,60 +3866,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6969,7 +6970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6982,7 +6983,7 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="I72" sqref="I72:I77"/>
     </sheetView>
   </sheetViews>
@@ -7105,34 +7106,34 @@
       <c r="H2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="215" t="s">
+      <c r="I2" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L2" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M2" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N2" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O2" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P2" s="212">
+      <c r="J2" s="192"/>
+      <c r="K2" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L2" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M2" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N2" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O2" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P2" s="193">
         <v>45812</v>
       </c>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="213"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="194"/>
     </row>
     <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A3" s="92">
@@ -7159,44 +7160,44 @@
       <c r="H3" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N3" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O3" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P3" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U3" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V3" s="213"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N3" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O3" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P3" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U3" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V3" s="194"/>
     </row>
     <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="92">
@@ -7223,44 +7224,44 @@
       <c r="H4" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="215" t="s">
+      <c r="I4" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N4" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O4" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P4" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U4" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V4" s="213"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N4" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O4" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P4" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U4" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V4" s="194"/>
     </row>
     <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="92">
@@ -7287,44 +7288,44 @@
       <c r="H5" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="215" t="s">
+      <c r="I5" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N5" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O5" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P5" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U5" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V5" s="213"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N5" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O5" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P5" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U5" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V5" s="194"/>
     </row>
     <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="92">
@@ -7351,44 +7352,44 @@
       <c r="H6" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="215" t="s">
+      <c r="I6" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N6" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O6" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P6" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U6" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V6" s="213"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N6" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O6" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P6" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U6" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V6" s="194"/>
     </row>
     <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="92">
@@ -7416,31 +7417,31 @@
         <v>27</v>
       </c>
       <c r="I7" s="94"/>
-      <c r="J7" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K7" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L7" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M7" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N7" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O7" s="212" t="s">
+      <c r="J7" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K7" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L7" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M7" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N7" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O7" s="193" t="s">
         <v>605</v>
       </c>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="213"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="194"/>
     </row>
     <row r="8" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="92">
@@ -7468,43 +7469,43 @@
         <v>27</v>
       </c>
       <c r="I8" s="94"/>
-      <c r="J8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N8" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O8" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P8" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U8" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V8" s="213"/>
+      <c r="J8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N8" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O8" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P8" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U8" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V8" s="194"/>
     </row>
     <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="92">
@@ -7532,35 +7533,35 @@
         <v>29</v>
       </c>
       <c r="I9" s="94"/>
-      <c r="J9" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K9" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L9" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M9" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N9" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O9" s="212" t="s">
+      <c r="J9" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K9" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L9" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M9" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N9" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O9" s="193" t="s">
         <v>602</v>
       </c>
-      <c r="P9" s="212" t="s">
+      <c r="P9" s="193" t="s">
         <v>602</v>
       </c>
-      <c r="Q9" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="213"/>
+      <c r="Q9" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="194"/>
     </row>
     <row r="10" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="92">
@@ -7588,35 +7589,35 @@
         <v>29</v>
       </c>
       <c r="I10" s="94"/>
-      <c r="J10" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K10" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L10" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M10" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N10" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O10" s="212" t="s">
+      <c r="J10" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K10" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L10" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M10" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N10" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O10" s="193" t="s">
         <v>603</v>
       </c>
-      <c r="P10" s="212" t="s">
+      <c r="P10" s="193" t="s">
         <v>603</v>
       </c>
-      <c r="Q10" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="211"/>
-      <c r="V10" s="213"/>
+      <c r="Q10" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R10" s="192"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="194"/>
     </row>
     <row r="11" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="92">
@@ -7644,33 +7645,33 @@
         <v>29</v>
       </c>
       <c r="I11" s="94"/>
-      <c r="J11" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K11" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L11" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M11" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N11" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O11" s="212" t="s">
+      <c r="J11" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K11" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L11" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M11" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N11" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O11" s="193" t="s">
         <v>604</v>
       </c>
-      <c r="P11" s="212" t="s">
+      <c r="P11" s="193" t="s">
         <v>604</v>
       </c>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="213"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="194"/>
     </row>
     <row r="12" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="92">
@@ -7698,39 +7699,39 @@
         <v>27</v>
       </c>
       <c r="I12" s="94"/>
-      <c r="J12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N12" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O12" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P12" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S12" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T12" s="211"/>
-      <c r="U12" s="211"/>
-      <c r="V12" s="213"/>
+      <c r="J12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N12" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O12" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P12" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S12" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="194"/>
     </row>
     <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="92">
@@ -7758,33 +7759,33 @@
         <v>27</v>
       </c>
       <c r="I13" s="94"/>
-      <c r="J13" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K13" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L13" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M13" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N13" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O13" s="212">
+      <c r="J13" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K13" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L13" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M13" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N13" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O13" s="193">
         <v>45791</v>
       </c>
-      <c r="P13" s="212">
+      <c r="P13" s="193">
         <v>45791</v>
       </c>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="213"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="194"/>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="92">
@@ -7812,33 +7813,33 @@
         <v>27</v>
       </c>
       <c r="I14" s="94"/>
-      <c r="J14" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K14" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L14" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M14" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N14" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O14" s="212">
+      <c r="J14" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K14" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L14" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M14" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N14" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O14" s="193">
         <v>45784</v>
       </c>
-      <c r="P14" s="212">
+      <c r="P14" s="193">
         <v>45784</v>
       </c>
-      <c r="Q14" s="211"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="213"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="192"/>
+      <c r="S14" s="192"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="194"/>
     </row>
     <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="92">
@@ -7866,33 +7867,33 @@
         <v>27</v>
       </c>
       <c r="I15" s="94"/>
-      <c r="J15" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K15" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L15" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M15" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N15" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O15" s="212" t="s">
+      <c r="J15" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K15" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L15" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M15" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N15" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O15" s="193" t="s">
         <v>599</v>
       </c>
-      <c r="P15" s="212" t="s">
+      <c r="P15" s="193" t="s">
         <v>599</v>
       </c>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="211"/>
-      <c r="S15" s="211"/>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="213"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="192"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="194"/>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A16" s="92">
@@ -7920,21 +7921,21 @@
         <v>27</v>
       </c>
       <c r="I16" s="95"/>
-      <c r="J16" s="211" t="s">
+      <c r="J16" s="192" t="s">
         <v>585</v>
       </c>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="213"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="194"/>
     </row>
     <row r="17" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A17" s="92">
@@ -7962,39 +7963,39 @@
         <v>27</v>
       </c>
       <c r="I17" s="95"/>
-      <c r="J17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N17" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O17" s="212">
+      <c r="J17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N17" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O17" s="193">
         <v>45684</v>
       </c>
-      <c r="P17" s="212">
+      <c r="P17" s="193">
         <v>45684</v>
       </c>
-      <c r="Q17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R17" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S17" s="211" t="s">
+      <c r="Q17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R17" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S17" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="213"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="194"/>
     </row>
     <row r="18" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="92">
@@ -8021,22 +8022,22 @@
       <c r="H18" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="213"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="194"/>
     </row>
     <row r="19" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="92">
@@ -8063,22 +8064,22 @@
       <c r="H19" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="215" t="s">
+      <c r="I19" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="212"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="211"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="211"/>
-      <c r="T19" s="211"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="213"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="194"/>
     </row>
     <row r="20" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="92">
@@ -8105,22 +8106,22 @@
       <c r="H20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="215" t="s">
+      <c r="I20" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="211"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="211"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-      <c r="T20" s="211"/>
-      <c r="U20" s="211"/>
-      <c r="V20" s="213"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="192"/>
+      <c r="S20" s="192"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="194"/>
     </row>
     <row r="21" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="92">
@@ -8147,22 +8148,22 @@
       <c r="H21" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="215" t="s">
+      <c r="I21" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="211"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="212"/>
-      <c r="O21" s="212"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="211"/>
-      <c r="T21" s="211"/>
-      <c r="U21" s="211"/>
-      <c r="V21" s="213"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="194"/>
     </row>
     <row r="22" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="92">
@@ -8189,46 +8190,46 @@
       <c r="H22" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="215" t="s">
+      <c r="I22" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N22" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O22" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P22" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U22" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V22" s="213"/>
+      <c r="J22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N22" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O22" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P22" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U22" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V22" s="194"/>
     </row>
     <row r="23" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="92">
@@ -8255,34 +8256,34 @@
       <c r="H23" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="215" t="s">
+      <c r="I23" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L23" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M23" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N23" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O23" s="212">
+      <c r="J23" s="192"/>
+      <c r="K23" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L23" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M23" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N23" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="193">
         <v>45753</v>
       </c>
-      <c r="P23" s="212">
+      <c r="P23" s="193">
         <v>45753</v>
       </c>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="211"/>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="213"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="194"/>
     </row>
     <row r="24" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A24" s="92">
@@ -8310,23 +8311,23 @@
         <v>29</v>
       </c>
       <c r="I24" s="95"/>
-      <c r="J24" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M24" s="211"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="212"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="213"/>
+      <c r="J24" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M24" s="192"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="194"/>
     </row>
     <row r="25" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A25" s="92">
@@ -8354,23 +8355,23 @@
         <v>29</v>
       </c>
       <c r="I25" s="95"/>
-      <c r="J25" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K25" s="214"/>
-      <c r="L25" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M25" s="211"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="211"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="211"/>
-      <c r="T25" s="211"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="213"/>
+      <c r="J25" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K25" s="195"/>
+      <c r="L25" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M25" s="192"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="192"/>
+      <c r="V25" s="194"/>
     </row>
     <row r="26" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A26" s="92">
@@ -8397,26 +8398,26 @@
       <c r="H26" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="215" t="s">
+      <c r="I26" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M26" s="211"/>
-      <c r="N26" s="212"/>
-      <c r="O26" s="212"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="211"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="211"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="213"/>
+      <c r="J26" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M26" s="192"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="194"/>
     </row>
     <row r="27" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="92">
@@ -8443,26 +8444,26 @@
       <c r="H27" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="215" t="s">
+      <c r="I27" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M27" s="211"/>
-      <c r="N27" s="212"/>
-      <c r="O27" s="212"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="213"/>
+      <c r="J27" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M27" s="192"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="193"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="192"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="194"/>
     </row>
     <row r="28" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="92">
@@ -8489,24 +8490,24 @@
       <c r="H28" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="215" t="s">
+      <c r="I28" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="212"/>
-      <c r="O28" s="212"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="213"/>
+      <c r="J28" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="194"/>
     </row>
     <row r="29" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="92">
@@ -8533,24 +8534,24 @@
       <c r="H29" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="215" t="s">
+      <c r="I29" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="212"/>
-      <c r="O29" s="212"/>
-      <c r="P29" s="212"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="213"/>
+      <c r="J29" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="192"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="193"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="192"/>
+      <c r="S29" s="192"/>
+      <c r="T29" s="192"/>
+      <c r="U29" s="192"/>
+      <c r="V29" s="194"/>
     </row>
     <row r="30" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A30" s="92">
@@ -8578,35 +8579,35 @@
         <v>27</v>
       </c>
       <c r="I30" s="95"/>
-      <c r="J30" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K30" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L30" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M30" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N30" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O30" s="212" t="s">
+      <c r="J30" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K30" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L30" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M30" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N30" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O30" s="193" t="s">
         <v>600</v>
       </c>
-      <c r="P30" s="212" t="s">
+      <c r="P30" s="193" t="s">
         <v>600</v>
       </c>
-      <c r="Q30" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="213"/>
+      <c r="Q30" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R30" s="192"/>
+      <c r="S30" s="192"/>
+      <c r="T30" s="192"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="194"/>
     </row>
     <row r="31" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A31" s="92">
@@ -8634,39 +8635,39 @@
         <v>27</v>
       </c>
       <c r="I31" s="95"/>
-      <c r="J31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N31" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O31" s="212">
+      <c r="J31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N31" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O31" s="193">
         <v>45692</v>
       </c>
-      <c r="P31" s="212">
+      <c r="P31" s="193">
         <v>45692</v>
       </c>
-      <c r="Q31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S31" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="213"/>
+      <c r="Q31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S31" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T31" s="192"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="194"/>
     </row>
     <row r="32" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="92">
@@ -8694,21 +8695,21 @@
         <v>62</v>
       </c>
       <c r="I32" s="95"/>
-      <c r="J32" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="212"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="213"/>
+      <c r="J32" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K32" s="192"/>
+      <c r="L32" s="192"/>
+      <c r="M32" s="192"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="192"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="192"/>
+      <c r="V32" s="194"/>
     </row>
     <row r="33" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="92">
@@ -8735,22 +8736,22 @@
       <c r="H33" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="215" t="s">
+      <c r="I33" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="211"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="212"/>
-      <c r="O33" s="212"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="213"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="192"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="194"/>
     </row>
     <row r="34" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="92">
@@ -8777,22 +8778,22 @@
       <c r="H34" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="215" t="s">
+      <c r="I34" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="211"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="211"/>
-      <c r="M34" s="211"/>
-      <c r="N34" s="212"/>
-      <c r="O34" s="212"/>
-      <c r="P34" s="212"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="211"/>
-      <c r="S34" s="211"/>
-      <c r="T34" s="211"/>
-      <c r="U34" s="211"/>
-      <c r="V34" s="213"/>
+      <c r="J34" s="192"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="192"/>
+      <c r="R34" s="192"/>
+      <c r="S34" s="192"/>
+      <c r="T34" s="192"/>
+      <c r="U34" s="192"/>
+      <c r="V34" s="194"/>
     </row>
     <row r="35" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="92">
@@ -8819,22 +8820,22 @@
       <c r="H35" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="215" t="s">
+      <c r="I35" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="211"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="212"/>
-      <c r="O35" s="212"/>
-      <c r="P35" s="212"/>
-      <c r="Q35" s="211"/>
-      <c r="R35" s="211"/>
-      <c r="S35" s="211"/>
-      <c r="T35" s="211"/>
-      <c r="U35" s="211"/>
-      <c r="V35" s="213"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="192"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="192"/>
+      <c r="R35" s="192"/>
+      <c r="S35" s="192"/>
+      <c r="T35" s="192"/>
+      <c r="U35" s="192"/>
+      <c r="V35" s="194"/>
     </row>
     <row r="36" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="92">
@@ -8861,22 +8862,22 @@
       <c r="H36" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="215" t="s">
+      <c r="I36" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="211"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="212"/>
-      <c r="P36" s="212"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="211"/>
-      <c r="S36" s="211"/>
-      <c r="T36" s="211"/>
-      <c r="U36" s="211"/>
-      <c r="V36" s="213"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="192"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="193"/>
+      <c r="P36" s="193"/>
+      <c r="Q36" s="192"/>
+      <c r="R36" s="192"/>
+      <c r="S36" s="192"/>
+      <c r="T36" s="192"/>
+      <c r="U36" s="192"/>
+      <c r="V36" s="194"/>
     </row>
     <row r="37" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="92">
@@ -8903,22 +8904,22 @@
       <c r="H37" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="215" t="s">
+      <c r="I37" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="211"/>
-      <c r="K37" s="211"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="211"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="212"/>
-      <c r="Q37" s="211"/>
-      <c r="R37" s="211"/>
-      <c r="S37" s="211"/>
-      <c r="T37" s="211"/>
-      <c r="U37" s="211"/>
-      <c r="V37" s="213"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="192"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="193"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="192"/>
+      <c r="S37" s="192"/>
+      <c r="T37" s="192"/>
+      <c r="U37" s="192"/>
+      <c r="V37" s="194"/>
     </row>
     <row r="38" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="92">
@@ -8945,22 +8946,22 @@
       <c r="H38" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="215" t="s">
+      <c r="I38" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="211"/>
-      <c r="K38" s="211"/>
-      <c r="L38" s="211"/>
-      <c r="M38" s="211"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="212"/>
-      <c r="Q38" s="211"/>
-      <c r="R38" s="211"/>
-      <c r="S38" s="211"/>
-      <c r="T38" s="211"/>
-      <c r="U38" s="211"/>
-      <c r="V38" s="213"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="192"/>
+      <c r="M38" s="192"/>
+      <c r="N38" s="193"/>
+      <c r="O38" s="193"/>
+      <c r="P38" s="193"/>
+      <c r="Q38" s="192"/>
+      <c r="R38" s="192"/>
+      <c r="S38" s="192"/>
+      <c r="T38" s="192"/>
+      <c r="U38" s="192"/>
+      <c r="V38" s="194"/>
     </row>
     <row r="39" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="92">
@@ -8987,22 +8988,22 @@
       <c r="H39" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="215" t="s">
+      <c r="I39" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="211"/>
-      <c r="K39" s="211"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="212"/>
-      <c r="P39" s="212"/>
-      <c r="Q39" s="211"/>
-      <c r="R39" s="211"/>
-      <c r="S39" s="211"/>
-      <c r="T39" s="211"/>
-      <c r="U39" s="211"/>
-      <c r="V39" s="213"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="193"/>
+      <c r="P39" s="193"/>
+      <c r="Q39" s="192"/>
+      <c r="R39" s="192"/>
+      <c r="S39" s="192"/>
+      <c r="T39" s="192"/>
+      <c r="U39" s="192"/>
+      <c r="V39" s="194"/>
     </row>
     <row r="40" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="92">
@@ -9030,37 +9031,37 @@
         <v>27</v>
       </c>
       <c r="I40" s="95"/>
-      <c r="J40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N40" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O40" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P40" s="212" t="s">
+      <c r="J40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N40" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O40" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P40" s="193" t="s">
         <v>601</v>
       </c>
-      <c r="Q40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R40" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S40" s="211"/>
-      <c r="T40" s="211"/>
-      <c r="U40" s="211"/>
-      <c r="V40" s="213"/>
+      <c r="Q40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R40" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S40" s="192"/>
+      <c r="T40" s="192"/>
+      <c r="U40" s="192"/>
+      <c r="V40" s="194"/>
     </row>
     <row r="41" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="92">
@@ -9087,22 +9088,22 @@
       <c r="H41" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="215" t="s">
+      <c r="I41" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="211"/>
-      <c r="K41" s="211"/>
-      <c r="L41" s="211"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="212"/>
-      <c r="P41" s="212"/>
-      <c r="Q41" s="211"/>
-      <c r="R41" s="211"/>
-      <c r="S41" s="211"/>
-      <c r="T41" s="211"/>
-      <c r="U41" s="211"/>
-      <c r="V41" s="213"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="193"/>
+      <c r="O41" s="193"/>
+      <c r="P41" s="193"/>
+      <c r="Q41" s="192"/>
+      <c r="R41" s="192"/>
+      <c r="S41" s="192"/>
+      <c r="T41" s="192"/>
+      <c r="U41" s="192"/>
+      <c r="V41" s="194"/>
     </row>
     <row r="42" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="92">
@@ -9129,22 +9130,22 @@
       <c r="H42" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="215" t="s">
+      <c r="I42" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="211"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="212"/>
-      <c r="Q42" s="211"/>
-      <c r="R42" s="211"/>
-      <c r="S42" s="211"/>
-      <c r="T42" s="211"/>
-      <c r="U42" s="211"/>
-      <c r="V42" s="213"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="193"/>
+      <c r="O42" s="193"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="192"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="192"/>
+      <c r="U42" s="192"/>
+      <c r="V42" s="194"/>
     </row>
     <row r="43" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="92">
@@ -9171,22 +9172,22 @@
       <c r="H43" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="215" t="s">
+      <c r="I43" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="211"/>
-      <c r="K43" s="211"/>
-      <c r="L43" s="211"/>
-      <c r="M43" s="211"/>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
-      <c r="P43" s="212"/>
-      <c r="Q43" s="211"/>
-      <c r="R43" s="211"/>
-      <c r="S43" s="211"/>
-      <c r="T43" s="211"/>
-      <c r="U43" s="211"/>
-      <c r="V43" s="213"/>
+      <c r="J43" s="192"/>
+      <c r="K43" s="192"/>
+      <c r="L43" s="192"/>
+      <c r="M43" s="192"/>
+      <c r="N43" s="193"/>
+      <c r="O43" s="193"/>
+      <c r="P43" s="193"/>
+      <c r="Q43" s="192"/>
+      <c r="R43" s="192"/>
+      <c r="S43" s="192"/>
+      <c r="T43" s="192"/>
+      <c r="U43" s="192"/>
+      <c r="V43" s="194"/>
     </row>
     <row r="44" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="92">
@@ -9213,22 +9214,22 @@
       <c r="H44" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="215" t="s">
+      <c r="I44" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="211"/>
-      <c r="K44" s="211"/>
-      <c r="L44" s="211"/>
-      <c r="M44" s="211"/>
-      <c r="N44" s="212"/>
-      <c r="O44" s="212"/>
-      <c r="P44" s="212"/>
-      <c r="Q44" s="211"/>
-      <c r="R44" s="211"/>
-      <c r="S44" s="211"/>
-      <c r="T44" s="211"/>
-      <c r="U44" s="211"/>
-      <c r="V44" s="213"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
+      <c r="L44" s="192"/>
+      <c r="M44" s="192"/>
+      <c r="N44" s="193"/>
+      <c r="O44" s="193"/>
+      <c r="P44" s="193"/>
+      <c r="Q44" s="192"/>
+      <c r="R44" s="192"/>
+      <c r="S44" s="192"/>
+      <c r="T44" s="192"/>
+      <c r="U44" s="192"/>
+      <c r="V44" s="194"/>
     </row>
     <row r="45" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="92">
@@ -9255,22 +9256,22 @@
       <c r="H45" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="215" t="s">
+      <c r="I45" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="211"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="212"/>
-      <c r="Q45" s="211"/>
-      <c r="R45" s="211"/>
-      <c r="S45" s="211"/>
-      <c r="T45" s="211"/>
-      <c r="U45" s="211"/>
-      <c r="V45" s="213"/>
+      <c r="J45" s="192"/>
+      <c r="K45" s="192"/>
+      <c r="L45" s="192"/>
+      <c r="M45" s="192"/>
+      <c r="N45" s="193"/>
+      <c r="O45" s="193"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="192"/>
+      <c r="S45" s="192"/>
+      <c r="T45" s="192"/>
+      <c r="U45" s="192"/>
+      <c r="V45" s="194"/>
     </row>
     <row r="46" spans="1:22" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="92">
@@ -9298,21 +9299,21 @@
         <v>27</v>
       </c>
       <c r="I46" s="95"/>
-      <c r="J46" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K46" s="211"/>
-      <c r="L46" s="211"/>
-      <c r="M46" s="211"/>
-      <c r="N46" s="212"/>
-      <c r="O46" s="212"/>
-      <c r="P46" s="212"/>
-      <c r="Q46" s="211"/>
-      <c r="R46" s="211"/>
-      <c r="S46" s="211"/>
-      <c r="T46" s="211"/>
-      <c r="U46" s="211"/>
-      <c r="V46" s="213"/>
+      <c r="J46" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K46" s="192"/>
+      <c r="L46" s="192"/>
+      <c r="M46" s="192"/>
+      <c r="N46" s="193"/>
+      <c r="O46" s="193"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="192"/>
+      <c r="R46" s="192"/>
+      <c r="S46" s="192"/>
+      <c r="T46" s="192"/>
+      <c r="U46" s="192"/>
+      <c r="V46" s="194"/>
     </row>
     <row r="47" spans="1:22" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="92">
@@ -9339,22 +9340,22 @@
       <c r="H47" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="215" t="s">
+      <c r="I47" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="211"/>
-      <c r="K47" s="211"/>
-      <c r="L47" s="211"/>
-      <c r="M47" s="211"/>
-      <c r="N47" s="212"/>
-      <c r="O47" s="212"/>
-      <c r="P47" s="212"/>
-      <c r="Q47" s="211"/>
-      <c r="R47" s="211"/>
-      <c r="S47" s="211"/>
-      <c r="T47" s="211"/>
-      <c r="U47" s="211"/>
-      <c r="V47" s="213"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="193"/>
+      <c r="O47" s="193"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="192"/>
+      <c r="S47" s="192"/>
+      <c r="T47" s="192"/>
+      <c r="U47" s="192"/>
+      <c r="V47" s="194"/>
     </row>
     <row r="48" spans="1:22" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="92">
@@ -9382,33 +9383,33 @@
         <v>27</v>
       </c>
       <c r="I48" s="95"/>
-      <c r="J48" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K48" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L48" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M48" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N48" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O48" s="212">
+      <c r="J48" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K48" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L48" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M48" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N48" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O48" s="193">
         <v>45760</v>
       </c>
-      <c r="P48" s="212">
+      <c r="P48" s="193">
         <v>45760</v>
       </c>
-      <c r="Q48" s="211"/>
-      <c r="R48" s="211"/>
-      <c r="S48" s="211"/>
-      <c r="T48" s="211"/>
-      <c r="U48" s="211"/>
-      <c r="V48" s="213"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="192"/>
+      <c r="S48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="194"/>
     </row>
     <row r="49" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="92">
@@ -9435,22 +9436,22 @@
       <c r="H49" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="215" t="s">
+      <c r="I49" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="211"/>
-      <c r="K49" s="211"/>
-      <c r="L49" s="211"/>
-      <c r="M49" s="211"/>
-      <c r="N49" s="212"/>
-      <c r="O49" s="212"/>
-      <c r="P49" s="212"/>
-      <c r="Q49" s="211"/>
-      <c r="R49" s="211"/>
-      <c r="S49" s="211"/>
-      <c r="T49" s="211"/>
-      <c r="U49" s="211"/>
-      <c r="V49" s="213"/>
+      <c r="J49" s="192"/>
+      <c r="K49" s="192"/>
+      <c r="L49" s="192"/>
+      <c r="M49" s="192"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="192"/>
+      <c r="S49" s="192"/>
+      <c r="T49" s="192"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="194"/>
     </row>
     <row r="50" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="92">
@@ -9477,22 +9478,22 @@
       <c r="H50" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="215" t="s">
+      <c r="I50" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="211"/>
-      <c r="K50" s="211"/>
-      <c r="L50" s="211"/>
-      <c r="M50" s="211"/>
-      <c r="N50" s="212"/>
-      <c r="O50" s="212"/>
-      <c r="P50" s="212"/>
-      <c r="Q50" s="211"/>
-      <c r="R50" s="211"/>
-      <c r="S50" s="211"/>
-      <c r="T50" s="211"/>
-      <c r="U50" s="211"/>
-      <c r="V50" s="213"/>
+      <c r="J50" s="192"/>
+      <c r="K50" s="192"/>
+      <c r="L50" s="192"/>
+      <c r="M50" s="192"/>
+      <c r="N50" s="193"/>
+      <c r="O50" s="193"/>
+      <c r="P50" s="193"/>
+      <c r="Q50" s="192"/>
+      <c r="R50" s="192"/>
+      <c r="S50" s="192"/>
+      <c r="T50" s="192"/>
+      <c r="U50" s="192"/>
+      <c r="V50" s="194"/>
     </row>
     <row r="51" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="92">
@@ -9519,22 +9520,22 @@
       <c r="H51" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="215" t="s">
+      <c r="I51" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="211"/>
-      <c r="K51" s="211"/>
-      <c r="L51" s="211"/>
-      <c r="M51" s="211"/>
-      <c r="N51" s="212"/>
-      <c r="O51" s="212"/>
-      <c r="P51" s="212"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="211"/>
-      <c r="S51" s="211"/>
-      <c r="T51" s="211"/>
-      <c r="U51" s="211"/>
-      <c r="V51" s="213"/>
+      <c r="J51" s="192"/>
+      <c r="K51" s="192"/>
+      <c r="L51" s="192"/>
+      <c r="M51" s="192"/>
+      <c r="N51" s="193"/>
+      <c r="O51" s="193"/>
+      <c r="P51" s="193"/>
+      <c r="Q51" s="192"/>
+      <c r="R51" s="192"/>
+      <c r="S51" s="192"/>
+      <c r="T51" s="192"/>
+      <c r="U51" s="192"/>
+      <c r="V51" s="194"/>
     </row>
     <row r="52" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="92">
@@ -9561,22 +9562,22 @@
       <c r="H52" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="215" t="s">
+      <c r="I52" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="211"/>
-      <c r="K52" s="211"/>
-      <c r="L52" s="211"/>
-      <c r="M52" s="211"/>
-      <c r="N52" s="212"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="212"/>
-      <c r="Q52" s="211"/>
-      <c r="R52" s="211"/>
-      <c r="S52" s="211"/>
-      <c r="T52" s="211"/>
-      <c r="U52" s="211"/>
-      <c r="V52" s="213"/>
+      <c r="J52" s="192"/>
+      <c r="K52" s="192"/>
+      <c r="L52" s="192"/>
+      <c r="M52" s="192"/>
+      <c r="N52" s="193"/>
+      <c r="O52" s="193"/>
+      <c r="P52" s="193"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="192"/>
+      <c r="S52" s="192"/>
+      <c r="T52" s="192"/>
+      <c r="U52" s="192"/>
+      <c r="V52" s="194"/>
     </row>
     <row r="53" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
@@ -9604,43 +9605,43 @@
         <v>27</v>
       </c>
       <c r="I53" s="95"/>
-      <c r="J53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N53" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O53" s="212" t="s">
+      <c r="J53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N53" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O53" s="193" t="s">
         <v>598</v>
       </c>
-      <c r="P53" s="212" t="s">
+      <c r="P53" s="193" t="s">
         <v>598</v>
       </c>
-      <c r="Q53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="S53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U53" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V53" s="213"/>
+      <c r="Q53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="S53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U53" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V53" s="194"/>
     </row>
     <row r="54" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
@@ -9668,19 +9669,19 @@
         <v>29</v>
       </c>
       <c r="I54" s="95"/>
-      <c r="J54" s="211"/>
-      <c r="K54" s="211"/>
-      <c r="L54" s="211"/>
-      <c r="M54" s="211"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="212"/>
-      <c r="P54" s="212"/>
-      <c r="Q54" s="211"/>
-      <c r="R54" s="211"/>
-      <c r="S54" s="211"/>
-      <c r="T54" s="211"/>
-      <c r="U54" s="211"/>
-      <c r="V54" s="213"/>
+      <c r="J54" s="192"/>
+      <c r="K54" s="192"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="193"/>
+      <c r="O54" s="193"/>
+      <c r="P54" s="193"/>
+      <c r="Q54" s="192"/>
+      <c r="R54" s="192"/>
+      <c r="S54" s="192"/>
+      <c r="T54" s="192"/>
+      <c r="U54" s="192"/>
+      <c r="V54" s="194"/>
     </row>
     <row r="55" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
@@ -9708,19 +9709,19 @@
         <v>29</v>
       </c>
       <c r="I55" s="95"/>
-      <c r="J55" s="211"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="211"/>
-      <c r="M55" s="211"/>
-      <c r="N55" s="212"/>
-      <c r="O55" s="212"/>
-      <c r="P55" s="212"/>
-      <c r="Q55" s="211"/>
-      <c r="R55" s="211"/>
-      <c r="S55" s="211"/>
-      <c r="T55" s="211"/>
-      <c r="U55" s="211"/>
-      <c r="V55" s="213"/>
+      <c r="J55" s="192"/>
+      <c r="K55" s="192"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="193"/>
+      <c r="O55" s="193"/>
+      <c r="P55" s="193"/>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="192"/>
+      <c r="S55" s="192"/>
+      <c r="T55" s="192"/>
+      <c r="U55" s="192"/>
+      <c r="V55" s="194"/>
     </row>
     <row r="56" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="92">
@@ -9747,22 +9748,22 @@
       <c r="H56" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="215" t="s">
+      <c r="I56" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="211"/>
-      <c r="K56" s="211"/>
-      <c r="L56" s="211"/>
-      <c r="M56" s="211"/>
-      <c r="N56" s="212"/>
-      <c r="O56" s="212"/>
-      <c r="P56" s="212"/>
-      <c r="Q56" s="211"/>
-      <c r="R56" s="211"/>
-      <c r="S56" s="211"/>
-      <c r="T56" s="211"/>
-      <c r="U56" s="211"/>
-      <c r="V56" s="213"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="192"/>
+      <c r="L56" s="192"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="193"/>
+      <c r="P56" s="193"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="V56" s="194"/>
     </row>
     <row r="57" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
@@ -9789,22 +9790,22 @@
       <c r="H57" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="215" t="s">
+      <c r="I57" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="211"/>
-      <c r="K57" s="211"/>
-      <c r="L57" s="211"/>
-      <c r="M57" s="211"/>
-      <c r="N57" s="212"/>
-      <c r="O57" s="212"/>
-      <c r="P57" s="212"/>
-      <c r="Q57" s="211"/>
-      <c r="R57" s="211"/>
-      <c r="S57" s="211"/>
-      <c r="T57" s="211"/>
-      <c r="U57" s="211"/>
-      <c r="V57" s="213"/>
+      <c r="J57" s="192"/>
+      <c r="K57" s="192"/>
+      <c r="L57" s="192"/>
+      <c r="M57" s="192"/>
+      <c r="N57" s="193"/>
+      <c r="O57" s="193"/>
+      <c r="P57" s="193"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="192"/>
+      <c r="S57" s="192"/>
+      <c r="T57" s="192"/>
+      <c r="U57" s="192"/>
+      <c r="V57" s="194"/>
     </row>
     <row r="58" spans="1:22" ht="45" x14ac:dyDescent="0.45">
       <c r="A58" s="92">
@@ -9831,22 +9832,22 @@
       <c r="H58" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="215" t="s">
+      <c r="I58" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="211"/>
-      <c r="K58" s="211"/>
-      <c r="L58" s="211"/>
-      <c r="M58" s="211"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="212"/>
-      <c r="P58" s="212"/>
-      <c r="Q58" s="211"/>
-      <c r="R58" s="211"/>
-      <c r="S58" s="211"/>
-      <c r="T58" s="211"/>
-      <c r="U58" s="211"/>
-      <c r="V58" s="213"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="193"/>
+      <c r="O58" s="193"/>
+      <c r="P58" s="193"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="192"/>
+      <c r="S58" s="192"/>
+      <c r="T58" s="192"/>
+      <c r="U58" s="192"/>
+      <c r="V58" s="194"/>
     </row>
     <row r="59" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="92">
@@ -9873,22 +9874,22 @@
       <c r="H59" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="215" t="s">
+      <c r="I59" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="211"/>
-      <c r="K59" s="211"/>
-      <c r="L59" s="211"/>
-      <c r="M59" s="211"/>
-      <c r="N59" s="212"/>
-      <c r="O59" s="212"/>
-      <c r="P59" s="212"/>
-      <c r="Q59" s="211"/>
-      <c r="R59" s="211"/>
-      <c r="S59" s="211"/>
-      <c r="T59" s="211"/>
-      <c r="U59" s="211"/>
-      <c r="V59" s="213"/>
+      <c r="J59" s="192"/>
+      <c r="K59" s="192"/>
+      <c r="L59" s="192"/>
+      <c r="M59" s="192"/>
+      <c r="N59" s="193"/>
+      <c r="O59" s="193"/>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="192"/>
+      <c r="R59" s="192"/>
+      <c r="S59" s="192"/>
+      <c r="T59" s="192"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="194"/>
     </row>
     <row r="60" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="92">
@@ -9913,22 +9914,22 @@
       <c r="H60" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="215" t="s">
+      <c r="I60" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="211"/>
-      <c r="K60" s="211"/>
-      <c r="L60" s="211"/>
-      <c r="M60" s="211"/>
-      <c r="N60" s="212"/>
-      <c r="O60" s="212"/>
-      <c r="P60" s="212"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="211"/>
-      <c r="S60" s="211"/>
-      <c r="T60" s="211"/>
-      <c r="U60" s="211"/>
-      <c r="V60" s="213"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="192"/>
+      <c r="L60" s="192"/>
+      <c r="M60" s="192"/>
+      <c r="N60" s="193"/>
+      <c r="O60" s="193"/>
+      <c r="P60" s="193"/>
+      <c r="Q60" s="192"/>
+      <c r="R60" s="192"/>
+      <c r="S60" s="192"/>
+      <c r="T60" s="192"/>
+      <c r="U60" s="192"/>
+      <c r="V60" s="194"/>
     </row>
     <row r="61" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
@@ -9953,22 +9954,22 @@
       <c r="H61" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="215" t="s">
+      <c r="I61" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="211"/>
-      <c r="K61" s="211"/>
-      <c r="L61" s="211"/>
-      <c r="M61" s="211"/>
-      <c r="N61" s="212"/>
-      <c r="O61" s="212"/>
-      <c r="P61" s="212"/>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="211"/>
-      <c r="S61" s="211"/>
-      <c r="T61" s="211"/>
-      <c r="U61" s="211"/>
-      <c r="V61" s="213"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="192"/>
+      <c r="L61" s="192"/>
+      <c r="M61" s="192"/>
+      <c r="N61" s="193"/>
+      <c r="O61" s="193"/>
+      <c r="P61" s="193"/>
+      <c r="Q61" s="192"/>
+      <c r="R61" s="192"/>
+      <c r="S61" s="192"/>
+      <c r="T61" s="192"/>
+      <c r="U61" s="192"/>
+      <c r="V61" s="194"/>
     </row>
     <row r="62" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="92">
@@ -9996,19 +9997,19 @@
         <v>27</v>
       </c>
       <c r="I62" s="95"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="211"/>
-      <c r="L62" s="211"/>
-      <c r="M62" s="211"/>
-      <c r="N62" s="212"/>
-      <c r="O62" s="212"/>
-      <c r="P62" s="212"/>
-      <c r="Q62" s="211"/>
-      <c r="R62" s="211"/>
-      <c r="S62" s="211"/>
-      <c r="T62" s="211"/>
-      <c r="U62" s="211"/>
-      <c r="V62" s="213"/>
+      <c r="J62" s="192"/>
+      <c r="K62" s="192"/>
+      <c r="L62" s="192"/>
+      <c r="M62" s="192"/>
+      <c r="N62" s="193"/>
+      <c r="O62" s="193"/>
+      <c r="P62" s="193"/>
+      <c r="Q62" s="192"/>
+      <c r="R62" s="192"/>
+      <c r="S62" s="192"/>
+      <c r="T62" s="192"/>
+      <c r="U62" s="192"/>
+      <c r="V62" s="194"/>
     </row>
     <row r="63" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="92">
@@ -10035,22 +10036,22 @@
       <c r="H63" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="215" t="s">
+      <c r="I63" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="211"/>
-      <c r="K63" s="211"/>
-      <c r="L63" s="211"/>
-      <c r="M63" s="211"/>
-      <c r="N63" s="212"/>
-      <c r="O63" s="212"/>
-      <c r="P63" s="212"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="211"/>
-      <c r="S63" s="211"/>
-      <c r="T63" s="211"/>
-      <c r="U63" s="211"/>
-      <c r="V63" s="213"/>
+      <c r="J63" s="192"/>
+      <c r="K63" s="192"/>
+      <c r="L63" s="192"/>
+      <c r="M63" s="192"/>
+      <c r="N63" s="193"/>
+      <c r="O63" s="193"/>
+      <c r="P63" s="193"/>
+      <c r="Q63" s="192"/>
+      <c r="R63" s="192"/>
+      <c r="S63" s="192"/>
+      <c r="T63" s="192"/>
+      <c r="U63" s="192"/>
+      <c r="V63" s="194"/>
     </row>
     <row r="64" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
@@ -10077,22 +10078,22 @@
       <c r="H64" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="215" t="s">
+      <c r="I64" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="211"/>
-      <c r="K64" s="211"/>
-      <c r="L64" s="211"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-      <c r="P64" s="212"/>
-      <c r="Q64" s="211"/>
-      <c r="R64" s="211"/>
-      <c r="S64" s="211"/>
-      <c r="T64" s="211"/>
-      <c r="U64" s="211"/>
-      <c r="V64" s="213"/>
+      <c r="J64" s="192"/>
+      <c r="K64" s="192"/>
+      <c r="L64" s="192"/>
+      <c r="M64" s="192"/>
+      <c r="N64" s="193"/>
+      <c r="O64" s="193"/>
+      <c r="P64" s="193"/>
+      <c r="Q64" s="192"/>
+      <c r="R64" s="192"/>
+      <c r="S64" s="192"/>
+      <c r="T64" s="192"/>
+      <c r="U64" s="192"/>
+      <c r="V64" s="194"/>
     </row>
     <row r="65" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A65" s="92">
@@ -10119,22 +10120,22 @@
       <c r="H65" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="215" t="s">
+      <c r="I65" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="211"/>
-      <c r="K65" s="211"/>
-      <c r="L65" s="211"/>
-      <c r="M65" s="211"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="212"/>
-      <c r="P65" s="212"/>
-      <c r="Q65" s="211"/>
-      <c r="R65" s="211"/>
-      <c r="S65" s="211"/>
-      <c r="T65" s="211"/>
-      <c r="U65" s="211"/>
-      <c r="V65" s="213"/>
+      <c r="J65" s="192"/>
+      <c r="K65" s="192"/>
+      <c r="L65" s="192"/>
+      <c r="M65" s="192"/>
+      <c r="N65" s="193"/>
+      <c r="O65" s="193"/>
+      <c r="P65" s="193"/>
+      <c r="Q65" s="192"/>
+      <c r="R65" s="192"/>
+      <c r="S65" s="192"/>
+      <c r="T65" s="192"/>
+      <c r="U65" s="192"/>
+      <c r="V65" s="194"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
@@ -10161,22 +10162,22 @@
       <c r="H66" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="215" t="s">
+      <c r="I66" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="211"/>
-      <c r="K66" s="211"/>
-      <c r="L66" s="211"/>
-      <c r="M66" s="211"/>
-      <c r="N66" s="212"/>
-      <c r="O66" s="212"/>
-      <c r="P66" s="212"/>
-      <c r="Q66" s="211"/>
-      <c r="R66" s="211"/>
-      <c r="S66" s="211"/>
-      <c r="T66" s="211"/>
-      <c r="U66" s="211"/>
-      <c r="V66" s="213"/>
+      <c r="J66" s="192"/>
+      <c r="K66" s="192"/>
+      <c r="L66" s="192"/>
+      <c r="M66" s="192"/>
+      <c r="N66" s="193"/>
+      <c r="O66" s="193"/>
+      <c r="P66" s="193"/>
+      <c r="Q66" s="192"/>
+      <c r="R66" s="192"/>
+      <c r="S66" s="192"/>
+      <c r="T66" s="192"/>
+      <c r="U66" s="192"/>
+      <c r="V66" s="194"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="92">
@@ -10203,36 +10204,36 @@
       <c r="H67" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I67" s="215" t="s">
+      <c r="I67" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K67" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L67" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M67" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N67" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O67" s="212">
+      <c r="J67" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K67" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L67" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M67" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N67" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O67" s="193">
         <v>45774</v>
       </c>
-      <c r="P67" s="212">
+      <c r="P67" s="193">
         <v>45774</v>
       </c>
-      <c r="Q67" s="211"/>
-      <c r="R67" s="211"/>
-      <c r="S67" s="211"/>
-      <c r="T67" s="211"/>
-      <c r="U67" s="211"/>
-      <c r="V67" s="213"/>
+      <c r="Q67" s="192"/>
+      <c r="R67" s="192"/>
+      <c r="S67" s="192"/>
+      <c r="T67" s="192"/>
+      <c r="U67" s="192"/>
+      <c r="V67" s="194"/>
     </row>
     <row r="68" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
@@ -10259,22 +10260,22 @@
       <c r="H68" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="215" t="s">
+      <c r="I68" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="211"/>
-      <c r="K68" s="211"/>
-      <c r="L68" s="211"/>
-      <c r="M68" s="211"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="212"/>
-      <c r="P68" s="212"/>
-      <c r="Q68" s="211"/>
-      <c r="R68" s="211"/>
-      <c r="S68" s="211"/>
-      <c r="T68" s="211"/>
-      <c r="U68" s="211"/>
-      <c r="V68" s="213"/>
+      <c r="J68" s="192"/>
+      <c r="K68" s="192"/>
+      <c r="L68" s="192"/>
+      <c r="M68" s="192"/>
+      <c r="N68" s="193"/>
+      <c r="O68" s="193"/>
+      <c r="P68" s="193"/>
+      <c r="Q68" s="192"/>
+      <c r="R68" s="192"/>
+      <c r="S68" s="192"/>
+      <c r="T68" s="192"/>
+      <c r="U68" s="192"/>
+      <c r="V68" s="194"/>
     </row>
     <row r="69" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
@@ -10301,22 +10302,22 @@
       <c r="H69" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="215" t="s">
+      <c r="I69" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="211"/>
-      <c r="K69" s="211"/>
-      <c r="L69" s="211"/>
-      <c r="M69" s="211"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-      <c r="P69" s="212"/>
-      <c r="Q69" s="211"/>
-      <c r="R69" s="211"/>
-      <c r="S69" s="211"/>
-      <c r="T69" s="211"/>
-      <c r="U69" s="211"/>
-      <c r="V69" s="213"/>
+      <c r="J69" s="192"/>
+      <c r="K69" s="192"/>
+      <c r="L69" s="192"/>
+      <c r="M69" s="192"/>
+      <c r="N69" s="193"/>
+      <c r="O69" s="193"/>
+      <c r="P69" s="193"/>
+      <c r="Q69" s="192"/>
+      <c r="R69" s="192"/>
+      <c r="S69" s="192"/>
+      <c r="T69" s="192"/>
+      <c r="U69" s="192"/>
+      <c r="V69" s="194"/>
     </row>
     <row r="70" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="92">
@@ -10343,36 +10344,36 @@
       <c r="H70" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="215" t="s">
+      <c r="I70" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K70" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L70" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M70" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N70" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O70" s="212">
+      <c r="J70" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K70" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L70" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M70" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N70" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" s="193">
         <v>45781</v>
       </c>
-      <c r="P70" s="212">
+      <c r="P70" s="193">
         <v>45781</v>
       </c>
-      <c r="Q70" s="211"/>
-      <c r="R70" s="211"/>
-      <c r="S70" s="211"/>
-      <c r="T70" s="211"/>
-      <c r="U70" s="211"/>
-      <c r="V70" s="213"/>
+      <c r="Q70" s="192"/>
+      <c r="R70" s="192"/>
+      <c r="S70" s="192"/>
+      <c r="T70" s="192"/>
+      <c r="U70" s="192"/>
+      <c r="V70" s="194"/>
     </row>
     <row r="71" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="92">
@@ -10399,20 +10400,20 @@
       <c r="H71" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="215"/>
-      <c r="J71" s="211"/>
-      <c r="K71" s="211"/>
-      <c r="L71" s="211"/>
-      <c r="M71" s="211"/>
-      <c r="N71" s="212"/>
-      <c r="O71" s="212"/>
-      <c r="P71" s="212"/>
-      <c r="Q71" s="211"/>
-      <c r="R71" s="211"/>
-      <c r="S71" s="211"/>
-      <c r="T71" s="211"/>
-      <c r="U71" s="211"/>
-      <c r="V71" s="213"/>
+      <c r="I71" s="196"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="192"/>
+      <c r="L71" s="192"/>
+      <c r="M71" s="192"/>
+      <c r="N71" s="193"/>
+      <c r="O71" s="193"/>
+      <c r="P71" s="193"/>
+      <c r="Q71" s="192"/>
+      <c r="R71" s="192"/>
+      <c r="S71" s="192"/>
+      <c r="T71" s="192"/>
+      <c r="U71" s="192"/>
+      <c r="V71" s="194"/>
     </row>
     <row r="72" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="92">
@@ -10439,36 +10440,36 @@
       <c r="H72" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I72" s="215" t="s">
+      <c r="I72" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="211"/>
-      <c r="K72" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L72" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M72" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N72" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O72" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P72" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q72" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R72" s="211"/>
-      <c r="S72" s="211"/>
-      <c r="T72" s="211"/>
-      <c r="U72" s="211"/>
-      <c r="V72" s="213"/>
+      <c r="J72" s="192"/>
+      <c r="K72" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L72" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M72" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N72" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O72" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P72" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q72" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R72" s="192"/>
+      <c r="S72" s="192"/>
+      <c r="T72" s="192"/>
+      <c r="U72" s="192"/>
+      <c r="V72" s="194"/>
     </row>
     <row r="73" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="92">
@@ -10495,22 +10496,22 @@
       <c r="H73" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="215" t="s">
+      <c r="I73" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="211"/>
-      <c r="K73" s="211"/>
-      <c r="L73" s="211"/>
-      <c r="M73" s="211"/>
-      <c r="N73" s="212"/>
-      <c r="O73" s="212"/>
-      <c r="P73" s="212"/>
-      <c r="Q73" s="211"/>
-      <c r="R73" s="211"/>
-      <c r="S73" s="211"/>
-      <c r="T73" s="211"/>
-      <c r="U73" s="211"/>
-      <c r="V73" s="213"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
+      <c r="L73" s="192"/>
+      <c r="M73" s="192"/>
+      <c r="N73" s="193"/>
+      <c r="O73" s="193"/>
+      <c r="P73" s="193"/>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="192"/>
+      <c r="S73" s="192"/>
+      <c r="T73" s="192"/>
+      <c r="U73" s="192"/>
+      <c r="V73" s="194"/>
     </row>
     <row r="74" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="92">
@@ -10537,22 +10538,22 @@
       <c r="H74" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="215" t="s">
+      <c r="I74" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J74" s="211"/>
-      <c r="K74" s="211"/>
-      <c r="L74" s="211"/>
-      <c r="M74" s="211"/>
-      <c r="N74" s="212"/>
-      <c r="O74" s="212"/>
-      <c r="P74" s="212"/>
-      <c r="Q74" s="211"/>
-      <c r="R74" s="211"/>
-      <c r="S74" s="211"/>
-      <c r="T74" s="211"/>
-      <c r="U74" s="211"/>
-      <c r="V74" s="213"/>
+      <c r="J74" s="192"/>
+      <c r="K74" s="192"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="193"/>
+      <c r="O74" s="193"/>
+      <c r="P74" s="193"/>
+      <c r="Q74" s="192"/>
+      <c r="R74" s="192"/>
+      <c r="S74" s="192"/>
+      <c r="T74" s="192"/>
+      <c r="U74" s="192"/>
+      <c r="V74" s="194"/>
     </row>
     <row r="75" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="92">
@@ -10579,22 +10580,22 @@
       <c r="H75" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="215" t="s">
+      <c r="I75" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="211"/>
-      <c r="K75" s="211"/>
-      <c r="L75" s="211"/>
-      <c r="M75" s="211"/>
-      <c r="N75" s="212"/>
-      <c r="O75" s="212"/>
-      <c r="P75" s="212"/>
-      <c r="Q75" s="211"/>
-      <c r="R75" s="211"/>
-      <c r="S75" s="211"/>
-      <c r="T75" s="211"/>
-      <c r="U75" s="211"/>
-      <c r="V75" s="213"/>
+      <c r="J75" s="192"/>
+      <c r="K75" s="192"/>
+      <c r="L75" s="192"/>
+      <c r="M75" s="192"/>
+      <c r="N75" s="193"/>
+      <c r="O75" s="193"/>
+      <c r="P75" s="193"/>
+      <c r="Q75" s="192"/>
+      <c r="R75" s="192"/>
+      <c r="S75" s="192"/>
+      <c r="T75" s="192"/>
+      <c r="U75" s="192"/>
+      <c r="V75" s="194"/>
     </row>
     <row r="76" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="92">
@@ -10621,22 +10622,22 @@
       <c r="H76" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I76" s="215" t="s">
+      <c r="I76" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="211"/>
-      <c r="K76" s="211"/>
-      <c r="L76" s="211"/>
-      <c r="M76" s="211"/>
-      <c r="N76" s="212"/>
-      <c r="O76" s="212"/>
-      <c r="P76" s="212"/>
-      <c r="Q76" s="211"/>
-      <c r="R76" s="211"/>
-      <c r="S76" s="211"/>
-      <c r="T76" s="211"/>
-      <c r="U76" s="211"/>
-      <c r="V76" s="213"/>
+      <c r="J76" s="192"/>
+      <c r="K76" s="192"/>
+      <c r="L76" s="192"/>
+      <c r="M76" s="192"/>
+      <c r="N76" s="193"/>
+      <c r="O76" s="193"/>
+      <c r="P76" s="193"/>
+      <c r="Q76" s="192"/>
+      <c r="R76" s="192"/>
+      <c r="S76" s="192"/>
+      <c r="T76" s="192"/>
+      <c r="U76" s="192"/>
+      <c r="V76" s="194"/>
     </row>
     <row r="77" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="92">
@@ -10663,22 +10664,22 @@
       <c r="H77" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I77" s="215" t="s">
+      <c r="I77" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="211"/>
-      <c r="K77" s="211"/>
-      <c r="L77" s="211"/>
-      <c r="M77" s="211"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="212"/>
-      <c r="P77" s="212"/>
-      <c r="Q77" s="211"/>
-      <c r="R77" s="211"/>
-      <c r="S77" s="211"/>
-      <c r="T77" s="211"/>
-      <c r="U77" s="211"/>
-      <c r="V77" s="213"/>
+      <c r="J77" s="192"/>
+      <c r="K77" s="192"/>
+      <c r="L77" s="192"/>
+      <c r="M77" s="192"/>
+      <c r="N77" s="193"/>
+      <c r="O77" s="193"/>
+      <c r="P77" s="193"/>
+      <c r="Q77" s="192"/>
+      <c r="R77" s="192"/>
+      <c r="S77" s="192"/>
+      <c r="T77" s="192"/>
+      <c r="U77" s="192"/>
+      <c r="V77" s="194"/>
     </row>
     <row r="78" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="92">
@@ -10698,19 +10699,19 @@
       <c r="G78" s="93"/>
       <c r="H78" s="93"/>
       <c r="I78" s="95"/>
-      <c r="J78" s="211"/>
-      <c r="K78" s="211"/>
-      <c r="L78" s="211"/>
-      <c r="M78" s="211"/>
-      <c r="N78" s="212"/>
-      <c r="O78" s="212"/>
-      <c r="P78" s="212"/>
-      <c r="Q78" s="211"/>
-      <c r="R78" s="211"/>
-      <c r="S78" s="211"/>
-      <c r="T78" s="211"/>
-      <c r="U78" s="211"/>
-      <c r="V78" s="213"/>
+      <c r="J78" s="192"/>
+      <c r="K78" s="192"/>
+      <c r="L78" s="192"/>
+      <c r="M78" s="192"/>
+      <c r="N78" s="193"/>
+      <c r="O78" s="193"/>
+      <c r="P78" s="193"/>
+      <c r="Q78" s="192"/>
+      <c r="R78" s="192"/>
+      <c r="S78" s="192"/>
+      <c r="T78" s="192"/>
+      <c r="U78" s="192"/>
+      <c r="V78" s="194"/>
     </row>
     <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="92">
@@ -10738,43 +10739,43 @@
         <v>27</v>
       </c>
       <c r="I79" s="95"/>
-      <c r="J79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="K79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="L79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="M79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="N79" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="O79" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="P79" s="212" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="R79" s="211" t="s">
+      <c r="J79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="K79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="L79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="N79" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="O79" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="P79" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="R79" s="192" t="s">
         <v>595</v>
       </c>
-      <c r="S79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="T79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="U79" s="211" t="s">
-        <v>594</v>
-      </c>
-      <c r="V79" s="213"/>
+      <c r="S79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="T79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="U79" s="192" t="s">
+        <v>594</v>
+      </c>
+      <c r="V79" s="194"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13000,7 +13001,7 @@
   </sheetPr>
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15133,416 +15134,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="197" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="216" t="s">
+      <c r="C1" s="197" t="s">
         <v>607</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="197" t="s">
         <v>778</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="197" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="197" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="217"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="217"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="218"/>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
-      <c r="B12" s="218"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="218"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="217"/>
-      <c r="B22" s="218"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="218"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
-      <c r="B28" s="218"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="217"/>
-      <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217"/>
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
+      <c r="A34" s="198"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
-      <c r="B35" s="218"/>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="217"/>
-      <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="218"/>
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="218"/>
+      <c r="A37" s="199"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="217"/>
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
+      <c r="A39" s="199"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="217"/>
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
+      <c r="A40" s="198"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
+      <c r="A41" s="199"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="217"/>
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
-      <c r="B43" s="218"/>
-      <c r="C43" s="218"/>
-      <c r="D43" s="218"/>
-      <c r="E43" s="218"/>
-      <c r="F43" s="218"/>
+      <c r="A43" s="199"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="199"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="217"/>
-      <c r="B44" s="218"/>
-      <c r="C44" s="218"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="218"/>
-      <c r="B45" s="218"/>
-      <c r="C45" s="218"/>
-      <c r="D45" s="218"/>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218"/>
+      <c r="A45" s="199"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="199"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="217"/>
-      <c r="B46" s="218"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
+      <c r="A46" s="198"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="218"/>
-      <c r="C47" s="218"/>
-      <c r="D47" s="218"/>
-      <c r="E47" s="218"/>
-      <c r="F47" s="218"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="217"/>
-      <c r="B48" s="218"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="218"/>
-      <c r="E48" s="218"/>
-      <c r="F48" s="218"/>
+      <c r="A48" s="198"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="218"/>
-      <c r="B49" s="218"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="218"/>
-      <c r="F49" s="218"/>
+      <c r="A49" s="199"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
     </row>
     <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="217"/>
-      <c r="B50" s="218"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
+      <c r="A50" s="198"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="199"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15573,1000 +15574,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="197" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="216" t="s">
+      <c r="C1" s="197" t="s">
         <v>607</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="197" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="197" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="197" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="217">
+      <c r="A2" s="198">
         <v>1</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="199" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="199" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="199" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="199" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="218" t="s">
+      <c r="F2" s="199" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="218">
+      <c r="A3" s="199">
         <v>2</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="199" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="199" t="s">
         <v>617</v>
       </c>
-      <c r="D3" s="218" t="s">
+      <c r="D3" s="199" t="s">
         <v>618</v>
       </c>
-      <c r="E3" s="218" t="s">
+      <c r="E3" s="199" t="s">
         <v>619</v>
       </c>
-      <c r="F3" s="218" t="s">
+      <c r="F3" s="199" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="217">
+      <c r="A4" s="198">
         <v>3</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="199" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="199" t="s">
         <v>622</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="199" t="s">
         <v>623</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="199" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="218">
+      <c r="A5" s="199">
         <v>4</v>
       </c>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="199" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="199" t="s">
         <v>622</v>
       </c>
-      <c r="E5" s="218" t="s">
+      <c r="E5" s="199" t="s">
         <v>625</v>
       </c>
-      <c r="F5" s="218" t="s">
+      <c r="F5" s="199" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="217">
+      <c r="A6" s="198">
         <v>5</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="199" t="s">
         <v>627</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="199" t="s">
         <v>622</v>
       </c>
-      <c r="E6" s="218" t="s">
+      <c r="E6" s="199" t="s">
         <v>629</v>
       </c>
-      <c r="F6" s="218" t="s">
+      <c r="F6" s="199" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="218">
+      <c r="A7" s="199">
         <v>6</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="199" t="s">
         <v>631</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="E7" s="218" t="s">
+      <c r="E7" s="199" t="s">
         <v>633</v>
       </c>
-      <c r="F7" s="218" t="s">
+      <c r="F7" s="199" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="217">
+      <c r="A8" s="198">
         <v>7</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="199" t="s">
         <v>636</v>
       </c>
-      <c r="E8" s="218" t="s">
+      <c r="E8" s="199" t="s">
         <v>637</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="199" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="218">
+      <c r="A9" s="199">
         <v>8</v>
       </c>
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="199" t="s">
         <v>639</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="199" t="s">
         <v>640</v>
       </c>
-      <c r="E9" s="218" t="s">
+      <c r="E9" s="199" t="s">
         <v>641</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="199" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="217">
+      <c r="A10" s="198">
         <v>9</v>
       </c>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="199" t="s">
         <v>643</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="199" t="s">
         <v>644</v>
       </c>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="199" t="s">
         <v>645</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="199" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="218">
+      <c r="A11" s="199">
         <v>10</v>
       </c>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="199" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D11" s="218" t="s">
+      <c r="D11" s="199" t="s">
         <v>647</v>
       </c>
-      <c r="E11" s="218" t="s">
+      <c r="E11" s="199" t="s">
         <v>648</v>
       </c>
-      <c r="F11" s="218" t="s">
+      <c r="F11" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="217">
+      <c r="A12" s="198">
         <v>11</v>
       </c>
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="199" t="s">
         <v>650</v>
       </c>
-      <c r="C12" s="218" t="s">
+      <c r="C12" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="199" t="s">
         <v>651</v>
       </c>
-      <c r="E12" s="218" t="s">
+      <c r="E12" s="199" t="s">
         <v>652</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="199" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="218">
+      <c r="A13" s="199">
         <v>12</v>
       </c>
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="C13" s="218" t="s">
+      <c r="C13" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D13" s="218" t="s">
+      <c r="D13" s="199" t="s">
         <v>654</v>
       </c>
-      <c r="E13" s="218" t="s">
+      <c r="E13" s="199" t="s">
         <v>655</v>
       </c>
-      <c r="F13" s="218" t="s">
+      <c r="F13" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="217">
+      <c r="A14" s="198">
         <v>13</v>
       </c>
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="199" t="s">
         <v>627</v>
       </c>
-      <c r="C14" s="218" t="s">
+      <c r="C14" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="199" t="s">
         <v>656</v>
       </c>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="199" t="s">
         <v>657</v>
       </c>
-      <c r="F14" s="218" t="s">
+      <c r="F14" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="218">
+      <c r="A15" s="199">
         <v>14</v>
       </c>
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="199" t="s">
         <v>658</v>
       </c>
-      <c r="C15" s="218" t="s">
+      <c r="C15" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D15" s="218" t="s">
+      <c r="D15" s="199" t="s">
         <v>659</v>
       </c>
-      <c r="E15" s="218" t="s">
+      <c r="E15" s="199" t="s">
         <v>660</v>
       </c>
-      <c r="F15" s="218" t="s">
+      <c r="F15" s="199" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="217">
+      <c r="A16" s="198">
         <v>15</v>
       </c>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="199" t="s">
         <v>662</v>
       </c>
-      <c r="C16" s="218" t="s">
+      <c r="C16" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="199" t="s">
         <v>663</v>
       </c>
-      <c r="E16" s="218" t="s">
+      <c r="E16" s="199" t="s">
         <v>664</v>
       </c>
-      <c r="F16" s="218" t="s">
+      <c r="F16" s="199" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="218">
+      <c r="A17" s="199">
         <v>16</v>
       </c>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="199" t="s">
         <v>666</v>
       </c>
-      <c r="C17" s="218" t="s">
+      <c r="C17" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D17" s="218" t="s">
+      <c r="D17" s="199" t="s">
         <v>667</v>
       </c>
-      <c r="E17" s="218" t="s">
+      <c r="E17" s="199" t="s">
         <v>668</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="199" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="217">
+      <c r="A18" s="198">
         <v>17</v>
       </c>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="199" t="s">
         <v>670</v>
       </c>
-      <c r="C18" s="218" t="s">
+      <c r="C18" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D18" s="218" t="s">
+      <c r="D18" s="199" t="s">
         <v>663</v>
       </c>
-      <c r="E18" s="218" t="s">
+      <c r="E18" s="199" t="s">
         <v>671</v>
       </c>
-      <c r="F18" s="218" t="s">
+      <c r="F18" s="199" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="218">
+      <c r="A19" s="199">
         <v>18</v>
       </c>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="199" t="s">
         <v>673</v>
       </c>
-      <c r="C19" s="218" t="s">
+      <c r="C19" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D19" s="218" t="s">
+      <c r="D19" s="199" t="s">
         <v>674</v>
       </c>
-      <c r="E19" s="218" t="s">
+      <c r="E19" s="199" t="s">
         <v>675</v>
       </c>
-      <c r="F19" s="218" t="s">
+      <c r="F19" s="199" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="217">
+      <c r="A20" s="198">
         <v>19</v>
       </c>
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="199" t="s">
         <v>662</v>
       </c>
-      <c r="C20" s="218" t="s">
+      <c r="C20" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="199" t="s">
         <v>677</v>
       </c>
-      <c r="E20" s="218" t="s">
+      <c r="E20" s="199" t="s">
         <v>678</v>
       </c>
-      <c r="F20" s="218" t="s">
+      <c r="F20" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="218">
+      <c r="A21" s="199">
         <v>20</v>
       </c>
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="199" t="s">
         <v>679</v>
       </c>
-      <c r="C21" s="218" t="s">
+      <c r="C21" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D21" s="218" t="s">
+      <c r="D21" s="199" t="s">
         <v>663</v>
       </c>
-      <c r="E21" s="218" t="s">
+      <c r="E21" s="199" t="s">
         <v>680</v>
       </c>
-      <c r="F21" s="218" t="s">
+      <c r="F21" s="199" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="217">
+      <c r="A22" s="198">
         <v>21</v>
       </c>
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="199" t="s">
         <v>682</v>
       </c>
-      <c r="C22" s="218" t="s">
+      <c r="C22" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D22" s="218" t="s">
+      <c r="D22" s="199" t="s">
         <v>618</v>
       </c>
-      <c r="E22" s="218" t="s">
+      <c r="E22" s="199" t="s">
         <v>683</v>
       </c>
-      <c r="F22" s="218" t="s">
+      <c r="F22" s="199" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="218">
+      <c r="A23" s="199">
         <v>22</v>
       </c>
-      <c r="B23" s="218" t="s">
+      <c r="B23" s="199" t="s">
         <v>495</v>
       </c>
-      <c r="C23" s="218" t="s">
+      <c r="C23" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="199" t="s">
         <v>663</v>
       </c>
-      <c r="E23" s="218" t="s">
+      <c r="E23" s="199" t="s">
         <v>685</v>
       </c>
-      <c r="F23" s="218" t="s">
+      <c r="F23" s="199" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="217">
+      <c r="A24" s="198">
         <v>23</v>
       </c>
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="199" t="s">
         <v>687</v>
       </c>
-      <c r="C24" s="218" t="s">
+      <c r="C24" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D24" s="218" t="s">
+      <c r="D24" s="199" t="s">
         <v>688</v>
       </c>
-      <c r="E24" s="218" t="s">
+      <c r="E24" s="199" t="s">
         <v>689</v>
       </c>
-      <c r="F24" s="218" t="s">
+      <c r="F24" s="199" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="218">
+      <c r="A25" s="199">
         <v>24</v>
       </c>
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="199" t="s">
         <v>691</v>
       </c>
-      <c r="C25" s="218" t="s">
+      <c r="C25" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D25" s="218" t="s">
+      <c r="D25" s="199" t="s">
         <v>692</v>
       </c>
-      <c r="E25" s="218" t="s">
+      <c r="E25" s="199" t="s">
         <v>693</v>
       </c>
-      <c r="F25" s="218" t="s">
+      <c r="F25" s="199" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="217">
+      <c r="A26" s="198">
         <v>25</v>
       </c>
-      <c r="B26" s="218" t="s">
+      <c r="B26" s="199" t="s">
         <v>687</v>
       </c>
-      <c r="C26" s="218" t="s">
+      <c r="C26" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D26" s="218" t="s">
+      <c r="D26" s="199" t="s">
         <v>695</v>
       </c>
-      <c r="E26" s="218" t="s">
+      <c r="E26" s="199" t="s">
         <v>696</v>
       </c>
-      <c r="F26" s="218" t="s">
+      <c r="F26" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="218">
+      <c r="A27" s="199">
         <v>26</v>
       </c>
-      <c r="B27" s="218" t="s">
+      <c r="B27" s="199" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="218" t="s">
+      <c r="C27" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D27" s="218" t="s">
+      <c r="D27" s="199" t="s">
         <v>698</v>
       </c>
-      <c r="E27" s="218" t="s">
+      <c r="E27" s="199" t="s">
         <v>699</v>
       </c>
-      <c r="F27" s="218" t="s">
+      <c r="F27" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="217">
+      <c r="A28" s="198">
         <v>27</v>
       </c>
-      <c r="B28" s="218" t="s">
+      <c r="B28" s="199" t="s">
         <v>700</v>
       </c>
-      <c r="C28" s="218" t="s">
+      <c r="C28" s="199" t="s">
         <v>701</v>
       </c>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218" t="s">
+      <c r="D28" s="199"/>
+      <c r="E28" s="199" t="s">
         <v>702</v>
       </c>
-      <c r="F28" s="218" t="s">
+      <c r="F28" s="199" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="218">
+      <c r="A29" s="199">
         <v>28</v>
       </c>
-      <c r="B29" s="218" t="s">
+      <c r="B29" s="199" t="s">
         <v>704</v>
       </c>
-      <c r="C29" s="218" t="s">
+      <c r="C29" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="199" t="s">
         <v>705</v>
       </c>
-      <c r="E29" s="218" t="s">
+      <c r="E29" s="199" t="s">
         <v>706</v>
       </c>
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="217">
+      <c r="A30" s="198">
         <v>29</v>
       </c>
-      <c r="B30" s="218" t="s">
+      <c r="B30" s="199" t="s">
         <v>707</v>
       </c>
-      <c r="C30" s="218" t="s">
+      <c r="C30" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="199" t="s">
         <v>708</v>
       </c>
-      <c r="E30" s="218" t="s">
+      <c r="E30" s="199" t="s">
         <v>709</v>
       </c>
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="199" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="218">
+      <c r="A31" s="199">
         <v>30</v>
       </c>
-      <c r="B31" s="218" t="s">
+      <c r="B31" s="199" t="s">
         <v>711</v>
       </c>
-      <c r="C31" s="218" t="s">
+      <c r="C31" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="199" t="s">
         <v>712</v>
       </c>
-      <c r="E31" s="218" t="s">
+      <c r="E31" s="199" t="s">
         <v>713</v>
       </c>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217">
+      <c r="A32" s="198">
         <v>31</v>
       </c>
-      <c r="B32" s="218" t="s">
+      <c r="B32" s="199" t="s">
         <v>714</v>
       </c>
-      <c r="C32" s="218" t="s">
+      <c r="C32" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D32" s="218" t="s">
+      <c r="D32" s="199" t="s">
         <v>715</v>
       </c>
-      <c r="E32" s="218" t="s">
+      <c r="E32" s="199" t="s">
         <v>716</v>
       </c>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="218">
+      <c r="A33" s="199">
         <v>32</v>
       </c>
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="199" t="s">
         <v>714</v>
       </c>
-      <c r="C33" s="218" t="s">
+      <c r="C33" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="199" t="s">
         <v>715</v>
       </c>
-      <c r="E33" s="218" t="s">
+      <c r="E33" s="199" t="s">
         <v>717</v>
       </c>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="217">
+      <c r="A34" s="198">
         <v>33</v>
       </c>
-      <c r="B34" s="218" t="s">
+      <c r="B34" s="199" t="s">
         <v>718</v>
       </c>
-      <c r="C34" s="218" t="s">
+      <c r="C34" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="199" t="s">
         <v>719</v>
       </c>
-      <c r="E34" s="218" t="s">
+      <c r="E34" s="199" t="s">
         <v>720</v>
       </c>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="199" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="218">
+      <c r="A35" s="199">
         <v>34</v>
       </c>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="199" t="s">
         <v>721</v>
       </c>
-      <c r="C35" s="218" t="s">
+      <c r="C35" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D35" s="218" t="s">
+      <c r="D35" s="199" t="s">
         <v>722</v>
       </c>
-      <c r="E35" s="218" t="s">
+      <c r="E35" s="199" t="s">
         <v>723</v>
       </c>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="199" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="217">
+      <c r="A36" s="198">
         <v>35</v>
       </c>
-      <c r="B36" s="218" t="s">
+      <c r="B36" s="199" t="s">
         <v>725</v>
       </c>
-      <c r="C36" s="218" t="s">
+      <c r="C36" s="199" t="s">
         <v>726</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="199" t="s">
         <v>727</v>
       </c>
-      <c r="E36" s="218" t="s">
+      <c r="E36" s="199" t="s">
         <v>728</v>
       </c>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="199" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="218">
+      <c r="A37" s="199">
         <v>36</v>
       </c>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="199" t="s">
         <v>730</v>
       </c>
-      <c r="C37" s="218" t="s">
+      <c r="C37" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D37" s="218" t="s">
+      <c r="D37" s="199" t="s">
         <v>731</v>
       </c>
-      <c r="E37" s="218" t="s">
+      <c r="E37" s="199" t="s">
         <v>732</v>
       </c>
-      <c r="F37" s="218" t="s">
+      <c r="F37" s="199" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="217">
+      <c r="A38" s="198">
         <v>37</v>
       </c>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="199" t="s">
         <v>734</v>
       </c>
-      <c r="C38" s="218" t="s">
+      <c r="C38" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="199" t="s">
         <v>735</v>
       </c>
-      <c r="E38" s="218" t="s">
+      <c r="E38" s="199" t="s">
         <v>736</v>
       </c>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="199" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="218">
+      <c r="A39" s="199">
         <v>38</v>
       </c>
-      <c r="B39" s="218" t="s">
+      <c r="B39" s="199" t="s">
         <v>738</v>
       </c>
-      <c r="C39" s="218" t="s">
+      <c r="C39" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D39" s="218" t="s">
+      <c r="D39" s="199" t="s">
         <v>739</v>
       </c>
-      <c r="E39" s="218" t="s">
+      <c r="E39" s="199" t="s">
         <v>740</v>
       </c>
-      <c r="F39" s="218" t="s">
+      <c r="F39" s="199" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="217">
+      <c r="A40" s="198">
         <v>39</v>
       </c>
-      <c r="B40" s="218" t="s">
+      <c r="B40" s="199" t="s">
         <v>742</v>
       </c>
-      <c r="C40" s="218" t="s">
+      <c r="C40" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="199" t="s">
         <v>739</v>
       </c>
-      <c r="E40" s="218" t="s">
+      <c r="E40" s="199" t="s">
         <v>743</v>
       </c>
-      <c r="F40" s="218" t="s">
+      <c r="F40" s="199" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="218">
+      <c r="A41" s="199">
         <v>40</v>
       </c>
-      <c r="B41" s="218" t="s">
+      <c r="B41" s="199" t="s">
         <v>745</v>
       </c>
-      <c r="C41" s="218" t="s">
+      <c r="C41" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="199" t="s">
         <v>746</v>
       </c>
-      <c r="E41" s="218" t="s">
+      <c r="E41" s="199" t="s">
         <v>747</v>
       </c>
-      <c r="F41" s="218" t="s">
+      <c r="F41" s="199" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="217">
+      <c r="A42" s="198">
         <v>41</v>
       </c>
-      <c r="B42" s="218" t="s">
+      <c r="B42" s="199" t="s">
         <v>749</v>
       </c>
-      <c r="C42" s="218" t="s">
+      <c r="C42" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="218" t="s">
+      <c r="D42" s="199" t="s">
         <v>750</v>
       </c>
-      <c r="E42" s="218" t="s">
+      <c r="E42" s="199" t="s">
         <v>751</v>
       </c>
-      <c r="F42" s="218" t="s">
+      <c r="F42" s="199" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="218">
+      <c r="A43" s="199">
         <v>42</v>
       </c>
-      <c r="B43" s="218" t="s">
+      <c r="B43" s="199" t="s">
         <v>753</v>
       </c>
-      <c r="C43" s="218" t="s">
+      <c r="C43" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D43" s="218" t="s">
+      <c r="D43" s="199" t="s">
         <v>754</v>
       </c>
-      <c r="E43" s="218" t="s">
+      <c r="E43" s="199" t="s">
         <v>755</v>
       </c>
-      <c r="F43" s="218" t="s">
+      <c r="F43" s="199" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="217">
+      <c r="A44" s="198">
         <v>43</v>
       </c>
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="199" t="s">
         <v>757</v>
       </c>
-      <c r="C44" s="218" t="s">
+      <c r="C44" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D44" s="218" t="s">
+      <c r="D44" s="199" t="s">
         <v>758</v>
       </c>
-      <c r="E44" s="218" t="s">
+      <c r="E44" s="199" t="s">
         <v>759</v>
       </c>
-      <c r="F44" s="218" t="s">
+      <c r="F44" s="199" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="218">
+      <c r="A45" s="199">
         <v>44</v>
       </c>
-      <c r="B45" s="218" t="s">
+      <c r="B45" s="199" t="s">
         <v>760</v>
       </c>
-      <c r="C45" s="218" t="s">
+      <c r="C45" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="199" t="s">
         <v>758</v>
       </c>
-      <c r="E45" s="218" t="s">
+      <c r="E45" s="199" t="s">
         <v>761</v>
       </c>
-      <c r="F45" s="218" t="s">
+      <c r="F45" s="199" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="217">
+      <c r="A46" s="198">
         <v>45</v>
       </c>
-      <c r="B46" s="218" t="s">
+      <c r="B46" s="199" t="s">
         <v>757</v>
       </c>
-      <c r="C46" s="218" t="s">
+      <c r="C46" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D46" s="218" t="s">
+      <c r="D46" s="199" t="s">
         <v>758</v>
       </c>
-      <c r="E46" s="218" t="s">
+      <c r="E46" s="199" t="s">
         <v>762</v>
       </c>
-      <c r="F46" s="218" t="s">
+      <c r="F46" s="199" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="218">
+      <c r="A47" s="199">
         <v>46</v>
       </c>
-      <c r="B47" s="218" t="s">
+      <c r="B47" s="199" t="s">
         <v>763</v>
       </c>
-      <c r="C47" s="218" t="s">
+      <c r="C47" s="199" t="s">
         <v>764</v>
       </c>
-      <c r="D47" s="218" t="s">
+      <c r="D47" s="199" t="s">
         <v>765</v>
       </c>
-      <c r="E47" s="218" t="s">
+      <c r="E47" s="199" t="s">
         <v>766</v>
       </c>
-      <c r="F47" s="218" t="s">
+      <c r="F47" s="199" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="217">
+      <c r="A48" s="198">
         <v>47</v>
       </c>
-      <c r="B48" s="218" t="s">
+      <c r="B48" s="199" t="s">
         <v>768</v>
       </c>
-      <c r="C48" s="218" t="s">
+      <c r="C48" s="199" t="s">
         <v>764</v>
       </c>
-      <c r="D48" s="218" t="s">
+      <c r="D48" s="199" t="s">
         <v>739</v>
       </c>
-      <c r="E48" s="218" t="s">
+      <c r="E48" s="199" t="s">
         <v>769</v>
       </c>
-      <c r="F48" s="218" t="s">
+      <c r="F48" s="199" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="218">
+      <c r="A49" s="199">
         <v>48</v>
       </c>
-      <c r="B49" s="218" t="s">
+      <c r="B49" s="199" t="s">
         <v>771</v>
       </c>
-      <c r="C49" s="218" t="s">
+      <c r="C49" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="D49" s="218" t="s">
+      <c r="D49" s="199" t="s">
         <v>739</v>
       </c>
-      <c r="E49" s="218" t="s">
+      <c r="E49" s="199" t="s">
         <v>772</v>
       </c>
-      <c r="F49" s="218" t="s">
+      <c r="F49" s="199" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="217">
+      <c r="A50" s="198">
         <v>49</v>
       </c>
-      <c r="B50" s="218" t="s">
+      <c r="B50" s="199" t="s">
         <v>774</v>
       </c>
-      <c r="C50" s="218" t="s">
+      <c r="C50" s="199" t="s">
         <v>621</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="199" t="s">
         <v>775</v>
       </c>
-      <c r="E50" s="218" t="s">
+      <c r="E50" s="199" t="s">
         <v>776</v>
       </c>
-      <c r="F50" s="218" t="s">
+      <c r="F50" s="199" t="s">
         <v>777</v>
       </c>
     </row>
@@ -16622,79 +16623,79 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="194"/>
+      <c r="A2" s="212"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
       <c r="E2" s="128"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="197"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194"/>
+      <c r="A3" s="212"/>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
       <c r="D3" s="128"/>
       <c r="E3" s="128"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="197"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="215"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="128"/>
       <c r="C4" s="128"/>
       <c r="D4" s="128"/>
       <c r="E4" s="128"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="197"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="215"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="197"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="215"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="128"/>
       <c r="C6" s="128"/>
       <c r="D6" s="128"/>
       <c r="E6" s="128"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="197"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="215"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="200"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198"/>
+      <c r="A9" s="216"/>
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="200"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="198"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="125"/>
       <c r="C10" s="125"/>
       <c r="D10" s="125"/>
@@ -16703,7 +16704,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="125"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -16712,7 +16713,7 @@
       <c r="G11" s="127"/>
     </row>
     <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -17422,7 +17423,7 @@
       <c r="F56" s="44">
         <v>122142545600</v>
       </c>
-      <c r="G56" s="192" t="s">
+      <c r="G56" s="210" t="s">
         <v>500</v>
       </c>
     </row>
@@ -17437,7 +17438,7 @@
       <c r="F57" s="44">
         <v>-10490000</v>
       </c>
-      <c r="G57" s="192"/>
+      <c r="G57" s="210"/>
     </row>
     <row r="58" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
@@ -17451,7 +17452,7 @@
         <f>F56+F57</f>
         <v>122132055600</v>
       </c>
-      <c r="G58" s="192"/>
+      <c r="G58" s="210"/>
     </row>
     <row r="59" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="163" t="s">
@@ -17468,7 +17469,7 @@
       <c r="F59" s="45">
         <v>216982240010</v>
       </c>
-      <c r="G59" s="193" t="s">
+      <c r="G59" s="211" t="s">
         <v>504</v>
       </c>
     </row>
@@ -17487,7 +17488,7 @@
       <c r="F60" s="45">
         <v>5707830600</v>
       </c>
-      <c r="G60" s="193"/>
+      <c r="G60" s="211"/>
     </row>
     <row r="61" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="165"/>
@@ -17501,7 +17502,7 @@
         <f>SUM(F59:F60)</f>
         <v>222690070610</v>
       </c>
-      <c r="G61" s="193"/>
+      <c r="G61" s="211"/>
     </row>
     <row r="62" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A62" s="124" t="s">
@@ -17518,7 +17519,7 @@
       <c r="F62" s="22">
         <v>13038123240</v>
       </c>
-      <c r="G62" s="202" t="s">
+      <c r="G62" s="200" t="s">
         <v>295</v>
       </c>
     </row>
@@ -17533,7 +17534,7 @@
       <c r="F63" s="22">
         <v>13102264018</v>
       </c>
-      <c r="G63" s="202"/>
+      <c r="G63" s="200"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
@@ -17547,7 +17548,7 @@
         <f>SUM(F62:F63)</f>
         <v>26140387258</v>
       </c>
-      <c r="G64" s="202"/>
+      <c r="G64" s="200"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="166" t="s">
@@ -17564,7 +17565,7 @@
       <c r="F65" s="49">
         <v>26294541000</v>
       </c>
-      <c r="G65" s="203" t="s">
+      <c r="G65" s="209" t="s">
         <v>508</v>
       </c>
     </row>
@@ -17579,7 +17580,7 @@
       <c r="F66" s="49">
         <v>1414361800</v>
       </c>
-      <c r="G66" s="203"/>
+      <c r="G66" s="209"/>
     </row>
     <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="168"/>
@@ -17593,7 +17594,7 @@
         <f>SUM(F65:F66)</f>
         <v>27708902800</v>
       </c>
-      <c r="G67" s="203"/>
+      <c r="G67" s="209"/>
     </row>
     <row r="68" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="133" t="s">
@@ -17696,7 +17697,7 @@
       <c r="F73" s="53">
         <v>80000000000</v>
       </c>
-      <c r="G73" s="202" t="s">
+      <c r="G73" s="200" t="s">
         <v>515</v>
       </c>
     </row>
@@ -17715,7 +17716,7 @@
       <c r="F74" s="54">
         <v>6963976200</v>
       </c>
-      <c r="G74" s="202"/>
+      <c r="G74" s="200"/>
     </row>
     <row r="75" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A75" s="125"/>
@@ -17732,7 +17733,7 @@
       <c r="F75" s="54">
         <v>-70825600</v>
       </c>
-      <c r="G75" s="202"/>
+      <c r="G75" s="200"/>
     </row>
     <row r="76" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A76" s="125"/>
@@ -17749,7 +17750,7 @@
       <c r="F76" s="54">
         <v>1963182979</v>
       </c>
-      <c r="G76" s="202"/>
+      <c r="G76" s="200"/>
     </row>
     <row r="77" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A77" s="125"/>
@@ -17766,7 +17767,7 @@
       <c r="F77" s="54">
         <v>11314202213</v>
       </c>
-      <c r="G77" s="202"/>
+      <c r="G77" s="200"/>
     </row>
     <row r="78" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
@@ -17780,7 +17781,7 @@
         <f>SUM(F73:F77)</f>
         <v>100170535792</v>
       </c>
-      <c r="G78" s="202"/>
+      <c r="G78" s="200"/>
     </row>
     <row r="79" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A79" s="155" t="s">
@@ -18484,10 +18485,10 @@
       </c>
       <c r="C124" s="148"/>
       <c r="D124" s="148"/>
-      <c r="E124" s="209" t="s">
+      <c r="E124" s="202" t="s">
         <v>459</v>
       </c>
-      <c r="F124" s="210">
+      <c r="F124" s="203">
         <v>29960000000</v>
       </c>
       <c r="G124" s="204" t="s">
@@ -18499,8 +18500,8 @@
       <c r="B125" s="152"/>
       <c r="C125" s="148"/>
       <c r="D125" s="148"/>
-      <c r="E125" s="209"/>
-      <c r="F125" s="210"/>
+      <c r="E125" s="202"/>
+      <c r="F125" s="203"/>
       <c r="G125" s="204"/>
     </row>
     <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18556,7 +18557,7 @@
       <c r="F128" s="53">
         <v>44422090000</v>
       </c>
-      <c r="G128" s="202" t="s">
+      <c r="G128" s="200" t="s">
         <v>229</v>
       </c>
     </row>
@@ -18575,7 +18576,7 @@
       <c r="F129" s="84">
         <v>-98025000</v>
       </c>
-      <c r="G129" s="202"/>
+      <c r="G129" s="200"/>
     </row>
     <row r="130" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A130" s="125"/>
@@ -18588,7 +18589,7 @@
       <c r="F130" s="84">
         <v>-163435600</v>
       </c>
-      <c r="G130" s="202"/>
+      <c r="G130" s="200"/>
     </row>
     <row r="131" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A131" s="125"/>
@@ -18601,7 +18602,7 @@
       <c r="F131" s="53">
         <v>999939800</v>
       </c>
-      <c r="G131" s="202"/>
+      <c r="G131" s="200"/>
     </row>
     <row r="132" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A132" s="125"/>
@@ -18614,7 +18615,7 @@
       <c r="F132" s="85">
         <v>-126000000</v>
       </c>
-      <c r="G132" s="202"/>
+      <c r="G132" s="200"/>
     </row>
     <row r="133" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A133" s="125"/>
@@ -18627,7 +18628,7 @@
       <c r="F133" s="53">
         <v>2944500000</v>
       </c>
-      <c r="G133" s="202"/>
+      <c r="G133" s="200"/>
     </row>
     <row r="134" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A134" s="125"/>
@@ -18640,7 +18641,7 @@
       <c r="F134" s="85">
         <v>-15626800</v>
       </c>
-      <c r="G134" s="202"/>
+      <c r="G134" s="200"/>
     </row>
     <row r="135" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A135" s="125"/>
@@ -18653,7 +18654,7 @@
       <c r="F135" s="85">
         <v>-2650000</v>
       </c>
-      <c r="G135" s="202"/>
+      <c r="G135" s="200"/>
     </row>
     <row r="136" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A136" s="125"/>
@@ -18666,7 +18667,7 @@
       <c r="F136" s="53">
         <v>17382070000</v>
       </c>
-      <c r="G136" s="202"/>
+      <c r="G136" s="200"/>
     </row>
     <row r="137" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A137" s="125"/>
@@ -18680,7 +18681,7 @@
         <f>SUM(F128:F136)</f>
         <v>65342862400</v>
       </c>
-      <c r="G137" s="202"/>
+      <c r="G137" s="200"/>
     </row>
     <row r="138" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A138" s="141" t="s">
@@ -18760,7 +18761,7 @@
       <c r="F142" s="22">
         <v>118900000000</v>
       </c>
-      <c r="G142" s="202" t="s">
+      <c r="G142" s="200" t="s">
         <v>578</v>
       </c>
     </row>
@@ -18779,7 +18780,7 @@
       <c r="F143" s="22">
         <v>3098466877</v>
       </c>
-      <c r="G143" s="202"/>
+      <c r="G143" s="200"/>
     </row>
     <row r="144" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A144" s="125"/>
@@ -18794,7 +18795,7 @@
       <c r="F144" s="22">
         <v>396000000</v>
       </c>
-      <c r="G144" s="202"/>
+      <c r="G144" s="200"/>
     </row>
     <row r="145" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A145" s="125"/>
@@ -18809,7 +18810,7 @@
       <c r="F145" s="22">
         <v>1280775000</v>
       </c>
-      <c r="G145" s="202"/>
+      <c r="G145" s="200"/>
     </row>
     <row r="146" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A146" s="125"/>
@@ -18824,7 +18825,7 @@
       <c r="F146" s="22">
         <v>404532000</v>
       </c>
-      <c r="G146" s="202"/>
+      <c r="G146" s="200"/>
     </row>
     <row r="147" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A147" s="125"/>
@@ -18837,7 +18838,7 @@
       <c r="F147" s="22">
         <v>750480000</v>
       </c>
-      <c r="G147" s="202"/>
+      <c r="G147" s="200"/>
     </row>
     <row r="148" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
@@ -18851,7 +18852,7 @@
         <f>SUM(F142:F147)</f>
         <v>124830253877</v>
       </c>
-      <c r="G148" s="202"/>
+      <c r="G148" s="200"/>
     </row>
     <row r="149" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A149" s="141" t="s">
@@ -18976,6 +18977,23 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G73:G78"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G102:G113"/>
+    <mergeCell ref="G95:G101"/>
+    <mergeCell ref="D92:D93"/>
     <mergeCell ref="G142:G148"/>
     <mergeCell ref="G149:G156"/>
     <mergeCell ref="G128:G137"/>
@@ -18983,23 +19001,6 @@
     <mergeCell ref="E124:E125"/>
     <mergeCell ref="F124:F125"/>
     <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G102:G113"/>
-    <mergeCell ref="G95:G101"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G73:G78"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.1023622047244095" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.51181102362204722"/>
